--- a/議事録/H27 PM演習議事録 4月10日.xlsx
+++ b/議事録/H27 PM演習議事録 4月10日.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>場所</t>
     <rPh sb="0" eb="2">
@@ -107,40 +107,116 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　</t>
+    <t>議事の要点</t>
+    <rPh sb="0" eb="2">
+      <t>ギジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨウテン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>位置づけ：立ち上げ
-流れ：外部から講師を呼び、超上流工程について講話を行った。</t>
-    <rPh sb="0" eb="2">
-      <t>イチ</t>
+    <t>決定事項</t>
+    <rPh sb="0" eb="4">
+      <t>ケッテイジコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プロジェクトメンバ
+佐藤　優至（PM)
+戸張　琢斗
+加藤　聖也
+・内容
+13：10～
+外部から講師を呼び、超上流工程について講話を行った。
+16：20</t>
+    <rPh sb="11" eb="13">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ユウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トバリ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>タク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カトウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>マサヤ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>コウシ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>コウワ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・次回は、4月17日の13：10に1号館堀内研究室にメンバ全員で集合する</t>
+    <rPh sb="1" eb="3">
+      <t>ジカイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ゴウカン</t>
+    </rPh>
+    <rPh sb="20" eb="25">
+      <t>ホリウチケンキュウシツ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シュウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・班決めを行った
+・テーマ決めを行った</t>
+    <rPh sb="1" eb="2">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
     </rPh>
     <rPh sb="5" eb="6">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>コウシ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>チョウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>コウワ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
       <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -334,7 +410,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -347,6 +423,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -356,32 +441,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -728,409 +813,415 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="6"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="6"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="20">
         <v>42104</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="6"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="26"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="29"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="29"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="29"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="29"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" s="27"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="29"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="29"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="29"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="29"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="27"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="29"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="27"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="29"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="29"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="32"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="15"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="15"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="15"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="15"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="15"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="15"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="15"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="15"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="15"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="18"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="26"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="26"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="26"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="26"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="26"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="26"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="26"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="26"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="26"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="26"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="26"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="29"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="12"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="12"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="12"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="12"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="12"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="12"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="12"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="12"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="12"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="15"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="1:10" ht="135" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="6"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
@@ -1145,7 +1236,9 @@
       <c r="J33" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A32:J32"/>
     <mergeCell ref="A19:J19"/>
     <mergeCell ref="A20:J30"/>
     <mergeCell ref="A1:B1"/>
